--- a/posesiones/1381307.xlsx
+++ b/posesiones/1381307.xlsx
@@ -2003,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>16</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R14">
         <v>16</v>
@@ -2594,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>8</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2697,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>11</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R21">
         <v>14</v>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3182,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R27">
         <v>11</v>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R28">
         <v>17</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3335,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R30">
         <v>11</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3532,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R34">
         <v>17</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3732,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R38">
         <v>15</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R40">
         <v>10</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R42">
         <v>14</v>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R43">
         <v>25</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4091,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R45">
         <v>11</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4291,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R49">
         <v>16</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R51">
         <v>8</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4497,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R53">
         <v>5</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4597,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R55">
         <v>1</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4791,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R59">
         <v>15</v>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R63">
         <v>25</v>
@@ -5038,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R64">
         <v>16</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5141,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R66">
         <v>9</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R69">
         <v>15</v>
@@ -5338,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R70">
         <v>23</v>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5538,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R74">
         <v>14</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5641,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R76">
         <v>1</v>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5741,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R78">
         <v>7</v>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5844,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R80">
         <v>17</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5988,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6132,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R86">
         <v>17</v>
@@ -6185,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R87">
         <v>26</v>
@@ -6238,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R88">
         <v>10</v>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6385,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R91">
         <v>17</v>
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6717,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6767,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6817,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R100">
         <v>40</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R102">
         <v>10</v>
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -7014,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -7061,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7158,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R107">
         <v>7</v>
@@ -7211,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R108">
         <v>5</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7314,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R110">
         <v>13</v>
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -7514,7 +7514,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R114">
         <v>13</v>
@@ -7567,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7617,7 +7617,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R116">
         <v>12</v>
@@ -7670,7 +7670,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R117">
         <v>5</v>
@@ -7720,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7817,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R120">
         <v>22</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8196,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8246,7 +8246,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R129">
         <v>23</v>
@@ -8299,7 +8299,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R130">
         <v>0</v>
@@ -8343,10 +8343,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8722,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8763,10 +8763,10 @@
         <v>1</v>
       </c>
       <c r="P140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q140">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8913,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R143">
         <v>18</v>
@@ -8966,7 +8966,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R144">
         <v>17</v>
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9066,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9163,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R148">
         <v>13</v>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R150">
         <v>9</v>
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9363,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R152">
         <v>18</v>
@@ -9416,7 +9416,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R153">
         <v>20</v>
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9516,7 +9516,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R155">
         <v>14</v>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9616,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9663,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9713,7 +9713,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R159">
         <v>21</v>
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9816,7 +9816,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R161">
         <v>7</v>
@@ -9869,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9919,7 +9919,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R163">
         <v>16</v>
@@ -9972,7 +9972,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R164">
         <v>17</v>
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R166">
         <v>14</v>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10175,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R168">
         <v>14</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10275,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R170">
         <v>17</v>
@@ -10325,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10419,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10466,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10610,7 +10610,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R177">
         <v>0</v>
@@ -10663,7 +10663,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R178">
         <v>16</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10807,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10860,7 +10860,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R182">
         <v>14</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10960,7 +10960,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R184">
         <v>11</v>
@@ -11010,7 +11010,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11060,7 +11060,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R186">
         <v>4</v>
@@ -11110,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11257,7 +11257,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R190">
         <v>19</v>
@@ -11310,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11360,7 +11360,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R192">
         <v>10</v>
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R194">
         <v>20</v>
@@ -11513,7 +11513,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11563,7 +11563,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R196">
         <v>7</v>
@@ -11613,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11657,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11704,7 +11704,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11801,7 +11801,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11851,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11901,7 +11901,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R203">
         <v>27</v>
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -12001,7 +12001,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -12048,7 +12048,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12098,7 +12098,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R207">
         <v>11</v>
@@ -12151,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12201,7 +12201,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R209">
         <v>12</v>
@@ -12251,7 +12251,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12298,7 +12298,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12348,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12398,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R213">
         <v>24</v>
@@ -12451,7 +12451,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R214">
         <v>11</v>
@@ -12501,7 +12501,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12595,7 +12595,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12642,7 +12642,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12689,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12783,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R222">
         <v>3</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12933,7 +12933,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R224">
         <v>24</v>
@@ -12983,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -13033,7 +13033,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R226">
         <v>21</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13183,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R229">
         <v>6</v>
@@ -13233,7 +13233,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R231">
         <v>20</v>
@@ -13336,7 +13336,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13386,7 +13386,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R233">
         <v>5</v>
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R235">
         <v>5</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13586,7 +13586,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R237">
         <v>6</v>
@@ -13639,7 +13639,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R239">
         <v>22</v>
@@ -13742,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13789,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13883,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13980,7 +13980,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R245">
         <v>12</v>
@@ -14033,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -14083,7 +14083,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R247">
         <v>9</v>
@@ -14136,7 +14136,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14186,7 +14186,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R249">
         <v>17</v>
@@ -14236,7 +14236,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14286,7 +14286,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R251">
         <v>11</v>
@@ -14339,7 +14339,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="R252">
         <v>24</v>
@@ -14392,7 +14392,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="R253">
         <v>10</v>
@@ -14448,7 +14448,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R254">
         <v>0</v>
@@ -14492,10 +14492,10 @@
         <v>1</v>
       </c>
       <c r="P255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q255">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14589,7 +14589,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14636,7 +14636,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14683,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14724,10 +14724,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q260">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14777,7 +14777,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R261">
         <v>11</v>
@@ -14827,7 +14827,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14874,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14924,7 +14924,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R264">
         <v>24</v>
@@ -14977,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -15024,7 +15024,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -15071,7 +15071,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15121,7 +15121,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15171,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15221,7 +15221,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R270">
         <v>19</v>
@@ -15274,7 +15274,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15321,7 +15321,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15371,7 +15371,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15421,7 +15421,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R274">
         <v>15</v>
@@ -15474,7 +15474,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R275">
         <v>5</v>
@@ -15524,7 +15524,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15571,7 +15571,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15618,7 +15618,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15668,7 +15668,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R279">
         <v>15</v>
@@ -15718,7 +15718,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15765,7 +15765,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15815,7 +15815,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R282">
         <v>16</v>
@@ -15865,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15915,7 +15915,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R284">
         <v>22</v>
@@ -15965,7 +15965,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -16015,7 +16015,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R286">
         <v>16</v>
@@ -16065,7 +16065,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -16115,7 +16115,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R288">
         <v>10</v>
@@ -16165,7 +16165,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16212,7 +16212,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16259,7 +16259,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16306,7 +16306,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16356,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16406,7 +16406,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R294">
         <v>16</v>
@@ -16459,7 +16459,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16506,7 +16506,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16553,7 +16553,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16600,7 +16600,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16650,7 +16650,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R299">
         <v>9</v>
@@ -16703,7 +16703,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R300">
         <v>13</v>
@@ -16753,7 +16753,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16803,7 +16803,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R302">
         <v>17</v>
@@ -16856,7 +16856,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16906,7 +16906,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R304">
         <v>7</v>
@@ -16956,7 +16956,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -17006,7 +17006,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R306">
         <v>13</v>
@@ -17056,7 +17056,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -17106,7 +17106,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R308">
         <v>16</v>
@@ -17159,7 +17159,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17209,7 +17209,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R310">
         <v>12</v>
@@ -17262,7 +17262,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17312,7 +17312,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R312">
         <v>2</v>
@@ -17362,7 +17362,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17409,7 +17409,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17456,7 +17456,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17506,7 +17506,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R316">
         <v>10</v>
@@ -17559,7 +17559,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R317">
         <v>13</v>
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17656,7 +17656,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17706,7 +17706,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R320">
         <v>22</v>
@@ -17759,7 +17759,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17809,7 +17809,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R322">
         <v>16</v>
@@ -17862,7 +17862,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17909,7 +17909,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17959,7 +17959,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -18009,7 +18009,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R326">
         <v>28</v>
@@ -18059,7 +18059,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -18109,7 +18109,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R328">
         <v>16</v>
@@ -18159,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18206,7 +18206,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18253,7 +18253,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18300,7 +18300,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18347,7 +18347,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18394,7 +18394,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18444,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18494,7 +18494,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R336">
         <v>22</v>
@@ -18544,7 +18544,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18591,7 +18591,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18638,7 +18638,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18685,7 +18685,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18735,7 +18735,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R341">
         <v>10</v>
@@ -18788,7 +18788,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R342">
         <v>11</v>
@@ -18838,7 +18838,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18885,7 +18885,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18985,7 +18985,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R346">
         <v>16</v>
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -19088,7 +19088,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R348">
         <v>7</v>
@@ -19138,7 +19138,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19185,7 +19185,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19232,7 +19232,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19279,7 +19279,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19329,7 +19329,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R353">
         <v>12</v>
@@ -19379,7 +19379,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19426,7 +19426,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19473,7 +19473,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19523,7 +19523,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R357">
         <v>18</v>
@@ -19573,7 +19573,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19620,7 +19620,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19667,7 +19667,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19714,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19761,7 +19761,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19808,7 +19808,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19855,7 +19855,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19905,7 +19905,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R365">
         <v>19</v>
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -20002,7 +20002,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -20049,7 +20049,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -20099,7 +20099,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20149,7 +20149,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R370">
         <v>21</v>
@@ -20199,7 +20199,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20246,7 +20246,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20296,7 +20296,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R373">
         <v>0</v>
@@ -20346,7 +20346,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20393,7 +20393,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20443,7 +20443,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20493,7 +20493,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R377">
         <v>17</v>
@@ -20546,7 +20546,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20596,7 +20596,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R379">
         <v>11</v>
@@ -20643,7 +20643,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20690,7 +20690,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20787,7 +20787,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R383">
         <v>22</v>
@@ -20840,7 +20840,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20890,7 +20890,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R385">
         <v>16</v>
@@ -20940,7 +20940,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20987,7 +20987,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -21031,7 +21031,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -21081,7 +21081,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R389">
         <v>28</v>
@@ -21134,7 +21134,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21181,7 +21181,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21231,7 +21231,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21278,7 +21278,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21325,7 +21325,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21372,7 +21372,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21422,7 +21422,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="R396">
         <v>6</v>
@@ -21475,7 +21475,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21525,7 +21525,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R398">
         <v>1</v>
@@ -21569,10 +21569,10 @@
         <v>1</v>
       </c>
       <c r="P399" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q399">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21619,7 +21619,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21666,7 +21666,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21707,10 +21707,10 @@
         <v>1</v>
       </c>
       <c r="P402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q402">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21807,7 +21807,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21854,7 +21854,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21901,7 +21901,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21948,7 +21948,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21998,7 +21998,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R408">
         <v>17</v>
@@ -22048,7 +22048,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -22095,7 +22095,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22142,7 +22142,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22192,7 +22192,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R412">
         <v>18</v>
@@ -22245,7 +22245,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22295,7 +22295,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R414">
         <v>8</v>
@@ -22345,7 +22345,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22392,7 +22392,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22439,7 +22439,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22489,7 +22489,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R418">
         <v>19</v>
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22586,7 +22586,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22636,7 +22636,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22686,7 +22686,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R422">
         <v>19</v>
@@ -22736,7 +22736,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22783,7 +22783,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22833,7 +22833,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R425">
         <v>13</v>
@@ -22883,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22933,7 +22933,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R427">
         <v>5</v>
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -23030,7 +23030,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R429">
         <v>20</v>
@@ -23080,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23130,7 +23130,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R431">
         <v>13</v>
@@ -23183,7 +23183,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23233,7 +23233,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R433">
         <v>9</v>
@@ -23286,7 +23286,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23336,7 +23336,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R435">
         <v>21</v>
@@ -23386,7 +23386,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23480,7 +23480,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23527,7 +23527,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23577,7 +23577,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R440">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R441">
         <v>23</v>
@@ -23683,7 +23683,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23733,7 +23733,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R443">
         <v>19</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23833,7 +23833,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R445">
         <v>5</v>
@@ -23883,7 +23883,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23930,7 +23930,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -24024,7 +24024,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -24071,7 +24071,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24118,7 +24118,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24165,7 +24165,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24262,7 +24262,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R454">
         <v>21</v>
@@ -24312,7 +24312,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24359,7 +24359,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24409,7 +24409,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R457">
         <v>0</v>
@@ -24462,7 +24462,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R458">
         <v>11</v>
@@ -24512,7 +24512,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24562,7 +24562,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R460">
         <v>22</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24662,7 +24662,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R462">
         <v>14</v>
@@ -24712,7 +24712,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24762,7 +24762,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R464">
         <v>5</v>
@@ -24815,7 +24815,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R465">
         <v>11</v>
@@ -24865,7 +24865,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24912,7 +24912,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -25006,7 +25006,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -25056,7 +25056,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R470">
         <v>16</v>
@@ -25109,7 +25109,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25159,7 +25159,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R472">
         <v>5</v>
@@ -25212,7 +25212,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R473">
         <v>12</v>
@@ -25262,7 +25262,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25312,7 +25312,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R475">
         <v>13</v>
@@ -25365,7 +25365,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R476">
         <v>15</v>
@@ -25415,7 +25415,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25462,7 +25462,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25509,7 +25509,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25559,7 +25559,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R480">
         <v>11</v>
@@ -25612,7 +25612,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R481">
         <v>8</v>
@@ -25662,7 +25662,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25756,7 +25756,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25850,7 +25850,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25897,7 +25897,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25944,7 +25944,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -26088,7 +26088,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R491">
         <v>16</v>
@@ -26138,7 +26138,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26185,7 +26185,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26232,7 +26232,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26279,7 +26279,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26323,7 +26323,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26373,7 +26373,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R497">
         <v>9</v>
@@ -26426,7 +26426,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R498">
         <v>0</v>
@@ -26476,7 +26476,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26526,7 +26526,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R500">
         <v>0</v>
@@ -26579,7 +26579,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R501">
         <v>5</v>
@@ -26629,7 +26629,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26676,7 +26676,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26723,7 +26723,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26770,7 +26770,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26820,7 +26820,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R506">
         <v>0</v>
@@ -26873,7 +26873,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R507">
         <v>22</v>
@@ -26926,7 +26926,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R508">
         <v>23</v>
@@ -26979,7 +26979,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -27029,7 +27029,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R510">
         <v>15</v>
@@ -27082,7 +27082,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -27132,7 +27132,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="R512">
         <v>18</v>
@@ -27185,7 +27185,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27232,7 +27232,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27279,7 +27279,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27326,7 +27326,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27373,7 +27373,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27420,7 +27420,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27561,7 +27561,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27608,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27705,7 +27705,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27799,7 +27799,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27849,7 +27849,7 @@
         <v>1</v>
       </c>
       <c r="Q527">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="R527">
         <v>25</v>
@@ -27902,7 +27902,7 @@
         <v>1</v>
       </c>
       <c r="Q528">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="R528">
         <v>15</v>
@@ -27955,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -28002,7 +28002,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -28102,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="Q532">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="R532">
         <v>19</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -28202,7 +28202,7 @@
         <v>1</v>
       </c>
       <c r="Q534">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="R534">
         <v>36</v>
@@ -28255,7 +28255,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="Q536">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="R536">
         <v>15</v>
@@ -28361,7 +28361,7 @@
         <v>1</v>
       </c>
       <c r="Q537">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="R537">
         <v>4</v>
@@ -28405,10 +28405,10 @@
         <v>1</v>
       </c>
       <c r="P538" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q538">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28449,7 +28449,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
